--- a/Setting HL-HHL Alarm IHLA TOPPIS MASTER Evaluasi SMW.xlsx
+++ b/Setting HL-HHL Alarm IHLA TOPPIS MASTER Evaluasi SMW.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RU V\OM\Level Minimum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maula\Documents\GitHub\ATG-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF82A07-36FC-49EF-B10E-565E0DA3831F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E3D5E7-C0AD-4753-A774-BFA7A6382364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="2865" windowWidth="12240" windowHeight="5235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List Max Baru (Recheck)" sheetId="5" r:id="rId1"/>
     <sheet name="Daftar Tangki 5-10-20 (14)" sheetId="7" r:id="rId2"/>
     <sheet name="Daftar Tangki 5-10-15 (1)" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daftar Tangki 5-10-15 (1)'!$A$4:$AB$35</definedName>
@@ -48,7 +45,16 @@
     <definedName name="TANKI_UP_V" localSheetId="1">'Daftar Tangki 5-10-20 (14)'!$B$5:$N$9</definedName>
     <definedName name="TANKI_UP_V" localSheetId="0">'List Max Baru (Recheck)'!$B$5:$N$138</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2212,33 +2218,6 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,6 +2265,33 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="12" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3303,10 +3309,10 @@
   <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
+      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3339,80 +3345,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="260" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
       <c r="S1" s="112"/>
       <c r="T1" s="61"/>
       <c r="U1" s="51"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271" t="s">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="272" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="274" t="s">
+      <c r="K2" s="265" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="276" t="s">
+      <c r="L2" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="277"/>
-      <c r="N2" s="271" t="s">
+      <c r="M2" s="268"/>
+      <c r="N2" s="262" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="271"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="279" t="s">
+      <c r="O2" s="262"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="280"/>
-      <c r="S2" s="260" t="s">
+      <c r="R2" s="271"/>
+      <c r="S2" s="276" t="s">
         <v>216</v>
       </c>
       <c r="T2" s="66"/>
       <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="D3" s="283" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -3430,8 +3436,8 @@
       <c r="I3" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="273"/>
-      <c r="K3" s="275"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="266"/>
       <c r="L3" s="251" t="s">
         <v>184</v>
       </c>
@@ -3447,9 +3453,9 @@
       <c r="P3" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="260"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="276"/>
       <c r="T3" s="63" t="s">
         <v>179</v>
       </c>
@@ -3479,10 +3485,10 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="268"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3515,8 +3521,8 @@
       <c r="P4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="275"/>
       <c r="S4" s="142"/>
       <c r="T4" s="62"/>
       <c r="U4" s="68" t="s">
@@ -17672,6 +17678,11 @@
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -17680,11 +17691,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="U5:U21 U25:U39 U42 U55:U61 U66:U147">
     <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
@@ -17791,7 +17797,7 @@
   <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView defaultGridColor="0" topLeftCell="A5" colorId="22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
@@ -17824,76 +17830,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="260" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
       <c r="S1" s="61"/>
       <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271" t="s">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="272" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="263" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="276" t="s">
+      <c r="L2" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="277"/>
-      <c r="N2" s="271" t="s">
+      <c r="M2" s="268"/>
+      <c r="N2" s="262" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="271"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="279" t="s">
+      <c r="O2" s="262"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="280"/>
+      <c r="R2" s="271"/>
       <c r="S2" s="66"/>
       <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="D3" s="283" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -17911,7 +17917,7 @@
       <c r="I3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="273"/>
+      <c r="J3" s="264"/>
       <c r="K3" s="286"/>
       <c r="L3" s="70" t="s">
         <v>184</v>
@@ -17928,8 +17934,8 @@
       <c r="P3" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="282"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="273"/>
       <c r="S3" s="63" t="s">
         <v>179</v>
       </c>
@@ -17956,10 +17962,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="268"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
@@ -17992,8 +17998,8 @@
       <c r="P4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="275"/>
       <c r="S4" s="62"/>
       <c r="T4" s="68" t="s">
         <v>180</v>
@@ -18485,51 +18491,51 @@
     </row>
     <row r="11" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
-      <c r="B11" s="271" t="s">
+      <c r="B11" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="271"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271" t="s">
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="272" t="s">
+      <c r="G11" s="262"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="263" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="276" t="s">
+      <c r="L11" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="277"/>
-      <c r="N11" s="271" t="s">
+      <c r="M11" s="268"/>
+      <c r="N11" s="262" t="s">
         <v>173</v>
       </c>
-      <c r="O11" s="271"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="279" t="s">
+      <c r="O11" s="262"/>
+      <c r="P11" s="269"/>
+      <c r="Q11" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="280"/>
+      <c r="R11" s="271"/>
       <c r="S11" s="66"/>
       <c r="T11" s="71"/>
     </row>
     <row r="12" spans="1:27" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="267" t="s">
+      <c r="D12" s="283" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="38" t="s">
@@ -18547,7 +18553,7 @@
       <c r="I12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="273"/>
+      <c r="J12" s="264"/>
       <c r="K12" s="286"/>
       <c r="L12" s="70" t="s">
         <v>184</v>
@@ -18564,8 +18570,8 @@
       <c r="P12" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" s="281"/>
-      <c r="R12" s="282"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="273"/>
       <c r="S12" s="63" t="s">
         <v>198</v>
       </c>
@@ -18592,10 +18598,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="262"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="268"/>
+      <c r="A13" s="278"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="284"/>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
@@ -18628,8 +18634,8 @@
       <c r="P13" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="283"/>
-      <c r="R13" s="284"/>
+      <c r="Q13" s="274"/>
+      <c r="R13" s="275"/>
       <c r="S13" s="62"/>
       <c r="T13" s="68" t="s">
         <v>180</v>
@@ -22205,13 +22211,6 @@
     <filterColumn colId="16" showButton="0"/>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="Q11:R13"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B2:E2"/>
@@ -22228,6 +22227,13 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T9 T14:T45">
     <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
@@ -22302,78 +22308,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="260" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
       <c r="S1" s="112"/>
       <c r="T1" s="61"/>
       <c r="U1" s="51"/>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271" t="s">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="272" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="263" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="285" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="276" t="s">
+      <c r="L2" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="277"/>
-      <c r="N2" s="271" t="s">
+      <c r="M2" s="268"/>
+      <c r="N2" s="262" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="271"/>
+      <c r="O2" s="262"/>
       <c r="P2" s="287"/>
       <c r="Q2" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="280"/>
+      <c r="R2" s="271"/>
       <c r="S2" s="109"/>
       <c r="T2" s="66"/>
       <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="D3" s="283" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -22391,7 +22397,7 @@
       <c r="I3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="273"/>
+      <c r="J3" s="264"/>
       <c r="K3" s="286"/>
       <c r="L3" s="70" t="s">
         <v>184</v>
@@ -22409,7 +22415,7 @@
         <v>197</v>
       </c>
       <c r="Q3" s="289"/>
-      <c r="R3" s="282"/>
+      <c r="R3" s="273"/>
       <c r="S3" s="109"/>
       <c r="T3" s="63" t="s">
         <v>198</v>
@@ -22437,10 +22443,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="262"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="268"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
@@ -22474,7 +22480,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="290"/>
-      <c r="R4" s="284"/>
+      <c r="R4" s="275"/>
       <c r="S4" s="109"/>
       <c r="T4" s="62"/>
       <c r="U4" s="68" t="s">
@@ -26220,40 +26226,4 @@
   <pageSetup paperSize="5" scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>